--- a/artfynd/A 65202-2018.xlsx
+++ b/artfynd/A 65202-2018.xlsx
@@ -716,10 +716,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>776794.6443266328</v>
+        <v>776795</v>
       </c>
       <c r="R2" t="n">
-        <v>7198203.916209933</v>
+        <v>7198204</v>
       </c>
       <c r="S2" t="n">
         <v>50</v>
@@ -749,19 +749,9 @@
           <t>2023-07-27</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-07-27</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
